--- a/data/trans_dic/P23_7_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_7_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares (tasa de respuesta: 99,55%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>9,68%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 12,9</t>
+          <t>4,57; 14,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 14,09</t>
+          <t>5,97; 14,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,86</t>
+          <t>3,27; 8,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,88; 17,35</t>
+          <t>0,98; 6,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 12,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 12,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 12,29</t>
+          <t>4,25; 13,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,26; 19,23</t>
+          <t>7,13; 14,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 10,66</t>
+          <t>6,7; 12,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,6; 12,47</t>
+          <t>9,27; 21,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,76; 16,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 12,06</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 12,72</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 9,83</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 13,89</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,65%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
           <t>5,72%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,87%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>11,69%</t>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>8,09%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,07</t>
+          <t>3,55; 8,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,0</t>
+          <t>4,0; 11,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 9,3</t>
+          <t>4,4; 8,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,54; 16,39</t>
+          <t>5,31; 17,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 12,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,6</t>
+          <t>6,63; 14,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 13,72</t>
+          <t>3,28; 6,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,06; 9,33</t>
+          <t>5,34; 9,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,95</t>
+          <t>4,53; 10,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,66; 14,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 10,31</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 8,54</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>5,39; 8,25</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 13,2</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,54%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,86</t>
+          <t>1,21; 10,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,69</t>
+          <t>1,97; 9,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,58</t>
+          <t>2,07; 5,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,98</t>
+          <t>3,98; 9,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,57</t>
+          <t>1,26; 4,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 11,93</t>
+          <t>1,53; 4,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,01</t>
+          <t>3,21; 6,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,69</t>
+          <t>4,61; 10,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 9,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 7,21</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 6,03</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,06; 5,34</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 8,78</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,18</t>
+          <t>3,27; 7,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,59</t>
+          <t>4,75; 10,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,47; 13,77</t>
+          <t>3,38; 8,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 9,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 6,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,53; 8,22</t>
+          <t>5,78; 10,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,38; 13,72</t>
+          <t>3,47; 9,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 7,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,11</t>
+          <t>5,11; 11,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 7,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 12,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 8,39</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,83; 8,75</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>4,99; 9,02</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 6,84</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,21; 8,65</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 6,69</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 9,67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 9,3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,41; 6,61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 8,33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,94; 10,58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5,43; 7,76</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 7,37</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,24; 7,03</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>6,52; 9,35</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares (tasa de respuesta: 99,55%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28600</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>47795</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>40614</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11872</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>33072</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>63228</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>81281</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>91404</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>61671</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>111023</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>121895</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>103276</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15348; 50212</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30705; 72103</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23610; 64316</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4286; 27037</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17697; 54890</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>44022; 87257</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>58568; 112880</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>58452; 132480</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>41119; 90750</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>84201; 143894</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>89438; 156734</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>70774; 148242</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>52370</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>78106</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>100779</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>95699</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>95060</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>60693</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>107429</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>77519</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>147430</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>138799</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>208208</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>173219</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>33075; 77693</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>48047; 142250</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>70908; 136877</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>56223; 188555</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>65976; 143984</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>40200; 83877</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>80244; 141694</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>49047; 109515</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>112105; 198773</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>105361; 207446</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>167602; 256837</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>130557; 282647</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26707</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37354</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>37623</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>52779</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21373</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25806</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>54715</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>60734</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>48080</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>63160</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>92338</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>113513</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8650; 75767</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16699; 81006</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22616; 59076</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>32856; 81257</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9659; 38112</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14401; 42253</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>37276; 77549</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>41313; 89688</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>27073; 106967</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>38500; 107712</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>68848; 120399</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>82183; 151271</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>71632</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>62724</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>62357</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>116138</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43137</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>75733</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>187770</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>105861</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>138090</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>46072; 106854</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>39912; 88180</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>36877; 93978</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>79900; 150318</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>25892; 68570</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>49241; 110390</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>145156; 234399</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>76622; 138782</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>102580; 185547</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>179308</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>225979</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>179015</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>222708</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>265642</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>192864</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>243424</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>305390</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>444950</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>418843</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>422440</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>528098</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>134431; 232115</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>177009; 294072</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>141430; 228803</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>170860; 329946</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>214286; 331260</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>155859; 233559</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>202342; 294727</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>248001; 378215</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>377701; 540016</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>353089; 510593</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>364537; 489202</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>455273; 653366</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
